--- a/python/auto/test.xlsx
+++ b/python/auto/test.xlsx
@@ -8,19 +8,19 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="接口" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -37,51 +37,100 @@
     <t xml:space="preserve">请求类型</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是否设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">header</t>
-    </r>
+    <t xml:space="preserve">是否设置header</t>
   </si>
   <si>
     <t xml:space="preserve">请求参数</t>
   </si>
   <si>
-    <t xml:space="preserve">测试结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录接口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://127.0.0.1/login</t>
+    <t xml:space="preserve">接口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.httpbin.org/post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{“username”:”test”,”password”:”123”}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退出接口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://127.0.0.1/logout</t>
+    <t xml:space="preserve">{"username":"test","password":"123"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.httpbin.org/get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"username":"test"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"password":"123"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口20</t>
   </si>
 </sst>
 </file>
@@ -91,10 +140,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC Regular"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -114,21 +164,17 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Noto Sans CJK SC Regular"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -141,12 +187,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -175,29 +228,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -217,26 +258,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.56744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.8558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -246,79 +285,491 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://127.0.0.1/login"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://127.0.0.1/logout"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://www.httpbin.org/get"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://www.httpbin.org/post"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://www.httpbin.org/get"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>